--- a/01 Data/Region.xlsx
+++ b/01 Data/Region.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliogonzalez/Documents/Data Visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliogonzalez/Documents/DV_Final_Project/01 Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12380" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>South</t>
   </si>
@@ -162,13 +162,34 @@
   </si>
   <si>
     <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>North</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +201,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Lucida Sans"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF003300"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,9 +228,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,341 +509,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D55" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
